--- a/nyc-boroughs.xlsx
+++ b/nyc-boroughs.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\hf-da-resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\hf-da-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A26B852-1B8D-4095-9377-F9C28DFB9BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F899D265-ABD9-4EEB-B680-3C23C5C2944B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-25693" yWindow="-13" windowWidth="25786" windowHeight="13986" xr2:uid="{BA5BFF20-A963-496C-BF03-CA6D24BDA288}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="12" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="13" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>borough</t>
   </si>
@@ -53,10 +56,19 @@
     <t>Manhattan</t>
   </si>
   <si>
+    <t>Staten Island</t>
+  </si>
+  <si>
+    <t>Total population:</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
     <t>Queens</t>
   </si>
   <si>
-    <t>Staten Island</t>
+    <t>New Borough? 🤔</t>
   </si>
 </sst>
 </file>
@@ -65,7 +77,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -92,163 +104,106 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="6">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD23338"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD23338"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD23338"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD23338"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD23338"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD23338"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="3" defaultTableStyle="Stringfest" defaultPivotStyle="Stringfest_Pivot">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{CB8F49CE-BE30-4A56-91B6-4BC4A54C4021}"/>
-    <tableStyle name="Stringfest" pivot="0" count="3" xr9:uid="{80757AD5-BA57-4B3B-81C1-A3519B7631A7}">
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="totalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
-    </tableStyle>
-    <tableStyle name="Stringfest_Pivot" table="0" count="10" xr9:uid="{E4F46EAF-081F-4FE3-B38A-4D174B16E75D}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="7"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="6"/>
-      <tableStyleElement type="thirdSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="4"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="3"/>
-      <tableStyleElement type="thirdRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
-    </tableStyle>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{140255C8-566C-41B7-9210-590B395F02B8}"/>
   </tableStyles>
-  <colors>
-    <mruColors>
-      <color rgb="FFD23338"/>
-      <color rgb="FFFB3338"/>
-      <color rgb="FF3D3935"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -260,10 +215,25 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB174865-EE01-4B88-A1BD-77AD65AD291A}" name="nyc" displayName="nyc" ref="A1:D7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D7" xr:uid="{FB174865-EE01-4B88-A1BD-77AD65AD291A}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0D447429-87D8-4774-B31A-C60E6326C0BA}" name="borough" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{AB779A8B-2102-4EF5-AEEA-2093BD8648EC}" name="population" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{A898E2F0-69CC-4C03-80DA-5375735C9C8E}" name="size" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{E4AA651F-52C0-4E0B-B7DC-3113CD1371B8}" name="density" dataDxfId="0">
+      <calculatedColumnFormula>nyc[[#This Row],[population]]/nyc[[#This Row],[size]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Stringfest">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -277,22 +247,22 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="D93644"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="D97179"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="F2B3B9"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="403C38"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="D8D8D8"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F2F2F2"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0563C1"/>
@@ -556,21 +526,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A21CF2-F045-4933-8F09-4E42461A7DCE}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56489DA-F2FA-4919-A29E-B53E5190850F}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.95"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.46875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.76171875" customWidth="1"/>
+    <col min="3" max="3" width="8.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -592,7 +562,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -603,7 +573,7 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -614,9 +584,9 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>2405464</v>
@@ -625,15 +595,24 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>495747</v>
       </c>
       <c r="C6">
         <v>57.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.95">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <f>SUM(B2:B6)</f>
+        <v>8804193</v>
       </c>
     </row>
   </sheetData>
@@ -642,24 +621,167 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E434C7-3094-4F14-A308-A7F518F9B546}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F257B462-FBB3-47A9-B0AA-A2474B0AA180}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.95"/>
+  <cols>
+    <col min="1" max="1" width="15.46875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.234375" customWidth="1"/>
+    <col min="3" max="3" width="6.87890625" customWidth="1"/>
+    <col min="4" max="4" width="8.9375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1472657</v>
+      </c>
+      <c r="C2" s="2">
+        <v>42.2</v>
+      </c>
+      <c r="D2" s="3">
+        <f>nyc[[#This Row],[population]]/nyc[[#This Row],[size]]</f>
+        <v>34897.08530805687</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2736074</v>
+      </c>
+      <c r="C3" s="2">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="D3" s="3">
+        <f>nyc[[#This Row],[population]]/nyc[[#This Row],[size]]</f>
+        <v>39424.697406340056</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1694251</v>
+      </c>
+      <c r="C4" s="2">
+        <v>22.7</v>
+      </c>
+      <c r="D4" s="3">
+        <f>nyc[[#This Row],[population]]/nyc[[#This Row],[size]]</f>
+        <v>74636.60792951542</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2405464</v>
+      </c>
+      <c r="C5" s="2">
+        <v>108.7</v>
+      </c>
+      <c r="D5" s="3">
+        <f>nyc[[#This Row],[population]]/nyc[[#This Row],[size]]</f>
+        <v>22129.383624655013</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>495747</v>
+      </c>
+      <c r="C6" s="2">
+        <v>57.5</v>
+      </c>
+      <c r="D6" s="3">
+        <f>nyc[[#This Row],[population]]/nyc[[#This Row],[size]]</f>
+        <v>8621.6869565217385</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <f>nyc[[#This Row],[population]]/nyc[[#This Row],[size]]</f>
+        <v>5</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.95">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <f>SUM(nyc[population])</f>
+        <v>8804203</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7212A37F-8D81-4E9A-93F9-DF0907629022}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B116CE7A-A59D-45ED-8D2B-8BC95BB52201}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.95"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
